--- a/Kolekcjoner/Luty2016.xlsx
+++ b/Kolekcjoner/Luty2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="511" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="591" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -443,16 +443,16 @@
     <t>seance</t>
   </si>
   <si>
-    <t>plaxcaster froglng</t>
+    <t>plaxcaster frogling</t>
   </si>
   <si>
     <t>culling sun</t>
   </si>
   <si>
-    <t>ulsht, the hate seed</t>
-  </si>
-  <si>
-    <t>teysa, orzhob scion</t>
+    <t>ulasht, the hate seed</t>
+  </si>
+  <si>
+    <t>teysa, orzhov scion</t>
   </si>
   <si>
     <t>hex</t>
@@ -482,13 +482,13 @@
     <t>loxodon gatekeeper</t>
   </si>
   <si>
-    <t>tolsmir wolfsblood</t>
+    <t>tolsmir wolfblood</t>
   </si>
   <si>
     <t>primordial sage</t>
   </si>
   <si>
-    <t>congregation of dawn</t>
+    <t>congregation at dawn</t>
   </si>
   <si>
     <t>borborygmos</t>
@@ -5195,8 +5195,10 @@
   </sheetPr>
   <dimension ref="A1:F1955"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A110" activeCellId="0" sqref="A110"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1902" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="4380" topLeftCell="A127" activePane="bottomLeft" state="split"/>
+      <selection pane="topLeft" activeCell="A1902" activeCellId="0" sqref="A1902"/>
+      <selection pane="bottomLeft" activeCell="A133" activeCellId="0" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
